--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +414,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +461,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +645,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +692,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +876,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +923,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1281,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1328,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1483,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1530,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1830,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1877,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1923,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2037,10 +2061,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2084,28 +2108,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2130,28 +2154,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2326,10 +2350,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2373,28 +2397,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2419,28 +2443,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2702,10 +2726,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2749,28 +2773,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2795,28 +2819,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3276,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3323,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3369,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3454,10 +3478,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3501,28 +3525,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3547,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3888,10 +3912,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3935,28 +3959,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3981,28 +4005,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4351,10 +4375,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4398,28 +4422,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4444,28 +4468,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4669,10 +4693,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4716,28 +4740,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4762,28 +4786,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5103,10 +5127,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
+      <c r="J172" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5150,28 +5174,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5196,28 +5220,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5363,10 +5387,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
